--- a/dist/assets/BOs/Ra.xlsx
+++ b/dist/assets/BOs/Ra.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\Ra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EBCD38-504D-4C12-AD07-E1EC20682730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72FC9F7-1FC4-44BD-9DD8-B6B49665BA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
-    <t>Ra - Water FH - Soka</t>
-  </si>
-  <si>
     <t>Archaic</t>
   </si>
   <si>
@@ -557,9 +554,6 @@
     <t>Research Levy Migdol Soldiers</t>
   </si>
   <si>
-    <t>Ra - 1 TC Aggression - Firefox</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -959,6 +953,12 @@
   </si>
   <si>
     <t>Make Axeman / Spearman</t>
+  </si>
+  <si>
+    <t>Water FH - By Soka</t>
+  </si>
+  <si>
+    <t>1 TC Aggression - By Firefox</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1062,17 +1062,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1306,16 +1302,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
+      <c r="A1" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
+      <c r="A2" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1323,7 +1319,7 @@
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1331,123 +1327,123 @@
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1455,21 +1451,21 @@
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1477,41 +1473,41 @@
     </row>
     <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1520,30 +1516,30 @@
     <row r="21" spans="1:4" ht="14.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="3" t="s">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1551,7 +1547,7 @@
     </row>
     <row r="24" spans="1:4" ht="14.25">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1560,24 +1556,24 @@
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D26" s="1"/>
     </row>
@@ -1646,7 +1642,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1655,183 +1651,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="5" t="s">
-        <v>59</v>
+      <c r="A1" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
+      <c r="A2" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="9" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="9" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
+      <c r="B7" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="9" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="9" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="9" t="s">
+      <c r="C9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="9" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="5" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="10" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
+      <c r="B14" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="9" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="14.25">
-      <c r="A16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="D17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="9" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D18" s="3" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/dist/assets/BOs/Ra.xlsx
+++ b/dist/assets/BOs/Ra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72FC9F7-1FC4-44BD-9DD8-B6B49665BA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2530FD68-5793-4984-AAD4-FB6DB04AA719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -955,10 +955,10 @@
     <t>Make Axeman / Spearman</t>
   </si>
   <si>
-    <t>Water FH - By Soka</t>
-  </si>
-  <si>
-    <t>1 TC Aggression - By Firefox</t>
+    <t>OUTDATED - 1 TC Aggression - By Firefox</t>
+  </si>
+  <si>
+    <t>OUTDATED - Water FH - By Soka</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1289,7 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -1303,7 +1303,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1641,7 +1641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE38D182-18A9-4951-A6D7-926732473700}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -1652,7 +1652,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="A1" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>

--- a/dist/assets/BOs/Ra.xlsx
+++ b/dist/assets/BOs/Ra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2530FD68-5793-4984-AAD4-FB6DB04AA719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88857962-6EB9-4BA8-9CE8-1203E7F30F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1293,11 +1293,11 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="57.88671875" customWidth="1"/>
+    <col min="3" max="3" width="62.5546875" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1309,7 +1309,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="15.6">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="14.25">
+    <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1325,7 +1325,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="13.8">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="13.8">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1361,7 +1361,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="13.8">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="13.8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1383,7 +1383,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="13.8">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="13.8">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1405,7 +1405,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="13.8">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="13.8">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" ht="13.8">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="15.6">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="13.8">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15.6">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -1471,13 +1471,13 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="14.25">
+    <row r="17" spans="1:4" ht="13.8">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4" ht="13.8">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4" ht="13.8">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="15.6">
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
@@ -1513,7 +1513,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="14.25">
+    <row r="21" spans="1:4" ht="13.8">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>45</v>
@@ -1523,7 +1523,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4" ht="13.8">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="15.6">
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
@@ -1545,7 +1545,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="14.25">
+    <row r="24" spans="1:4" ht="13.8">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1553,7 +1553,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4" ht="13.8">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>52</v>
@@ -1565,7 +1565,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="26" spans="1:4" ht="13.8">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -1577,48 +1577,48 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="14.25">
+    <row r="27" spans="1:4" ht="13.8">
       <c r="A27" s="4"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="14.25">
+    <row r="28" spans="1:4" ht="13.8">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="14.25">
+    <row r="29" spans="1:4" ht="13.8">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="14.25">
+    <row r="30" spans="1:4" ht="13.8">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="14.25">
+    <row r="31" spans="1:4" ht="13.8">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="14.25">
+    <row r="32" spans="1:4" ht="13.8">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="14.25">
+    <row r="33" spans="1:4" ht="13.8">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="14.25">
+    <row r="34" spans="1:4" ht="13.8">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1645,12 +1645,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1"/>
+    <col min="1" max="1" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="17.399999999999999">
       <c r="A1" s="7" t="s">
         <v>87</v>
       </c>
@@ -1658,7 +1658,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75">
+    <row r="2" spans="1:4" ht="15.6">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1666,7 +1666,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="14.25">
+    <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -1684,7 +1684,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="13.8">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="13.8">
       <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="13.8">
       <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="13.8">
       <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
@@ -1726,7 +1726,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="13.8">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="13.8">
       <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="13.8">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75">
+    <row r="12" spans="1:4" ht="15.6">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -1768,7 +1768,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" ht="13.8">
       <c r="A13" s="1" t="s">
         <v>75</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="13.8">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75">
+    <row r="15" spans="1:4" ht="15.6">
       <c r="A15" s="5" t="s">
         <v>80</v>
       </c>
@@ -1798,13 +1798,13 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="14.25">
+    <row r="16" spans="1:4" ht="13.8">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" ht="13.8">
       <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4" ht="13.8">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">

--- a/dist/assets/BOs/Ra.xlsx
+++ b/dist/assets/BOs/Ra.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6590C42-393B-457E-A30A-EB2048672E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3499D2B5-B7BB-4DDE-8FED-0F133AAA41D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil2" sheetId="3" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="7" r:id="rId1"/>
     <sheet name="Feuil4" sheetId="5" r:id="rId2"/>
     <sheet name="Feuil5" sheetId="6" r:id="rId3"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>Archaic</t>
   </si>
@@ -45,234 +45,23 @@
     <t>3 to Gold</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/ 0 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>Initial vills: 
-2 to Food
-1 to Monument (in Gold/Food/Wood coverage), then chop 20 wood, then to Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decide on what food you have, if you need to shoot down a rhino use 3, if its deer shoot two with TC, 2 food + 1 monument. </t>
-  </si>
-  <si>
-    <t>Pharao empower Food
-Priest empowers: Monument -&gt; Mining Camp -&gt; make obelisks when you have 10 Gold</t>
-  </si>
-  <si>
     <t>3 / 0 / 1 / 1</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">3 / 0 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 1</t>
-    </r>
-  </si>
-  <si>
     <t>1 to Gold</t>
   </si>
   <si>
-    <t>Research Pickaxe when 120 Wood</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 0 / 2 / 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6 / 0 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 0 / 4 / 1</t>
-    </r>
-  </si>
-  <si>
-    <t>Vills transition:
-Once enough Gold, make Temple with 4 Gold villagers, then back to Gold</t>
-  </si>
-  <si>
-    <t>Pharao empower Monument when you start building Temple. Don't miss drops -&gt; check villager's food amount before moving Pharaoh.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7 / 0 / 4 / 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+ 1 Builder</t>
-    </r>
-  </si>
-  <si>
     <t>1 Builder -&gt; Houses</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">7 / 0 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / 1 + 1 Builder</t>
-    </r>
-  </si>
-  <si>
     <t>Advance</t>
   </si>
   <si>
     <t>Option: 2 TC</t>
-  </si>
-  <si>
-    <t>Option: Classical Pressure</t>
   </si>
   <si>
     <t>Vills transition
 2 Food / 10 Gold / 1 Builder (2 houses, then to Gold)</t>
-  </si>
-  <si>
-    <t>Vills transition:
-4 Food / 5 Gold / 3 Wood / 1 Builder</t>
   </si>
   <si>
     <t>Classical</t>
@@ -586,17 +375,393 @@
   </si>
   <si>
     <t>Boom - Water BO - By Jollyman</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ 0 / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial vills: 
+3 to Food</t>
+  </si>
+  <si>
+    <t>Pharao empower Food
+Priest empowers: Monument -&gt; Mining Camp</t>
+  </si>
+  <si>
+    <t>1 to Monument (in Gold/Food/Wood coverage), then
+ chop 20 wood, then to Gold</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 3 / 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Research Pickaxe when you have 5 on Food</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Gold villager builds 2nd Monument, then goes back to Gold</t>
+  </si>
+  <si>
+    <t>Priest empowers building 2nd Monument,
+then back to Gold to not miss any villager drops,
+then back to 2nd Monument when finished.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 2</t>
+    </r>
+  </si>
+  <si>
+    <t>Vills transition:
+Once enough Gold, make Temple with 1 Gold villager, then back to Gold</t>
+  </si>
+  <si>
+    <t>Pharao empower 2nd Monument when you start building Temple. Don't miss drops -&gt; check villager's food amount before moving Pharaoh.
+Priest goes scouting.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 / 0 / 4 / 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ 1 Builder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 4 / 2 + 1 Builder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 + 1 Builder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 6 / 2 + 1 Builder</t>
+    </r>
+  </si>
+  <si>
+    <t>1 to Wood</t>
+  </si>
+  <si>
+    <t>Make 2nd priest for scouting</t>
+  </si>
+  <si>
+    <t>Research Hand of the Pharao</t>
+  </si>
+  <si>
+    <t>1 Priest: grab 2 Relics</t>
+  </si>
+  <si>
+    <t>Builder builds Armory (keep building houses after)</t>
+  </si>
+  <si>
+    <t>Research Sacred Cats</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 6 / 2 + 1 Builder</t>
+    </r>
+  </si>
+  <si>
+    <t>4 to Food</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 + 1 Builder</t>
+    </r>
+  </si>
+  <si>
+    <t>Vills transition
+3 Food villagers to Wood
+3 Food villagers to Gold</t>
+  </si>
+  <si>
+    <t>Queue Eco upgrades</t>
+  </si>
+  <si>
+    <t>Both priest come home:
+Pharao empowers Gold
+Priest empowers Food
+Priest empowers Wood</t>
+  </si>
+  <si>
+    <t>Heroic</t>
+  </si>
+  <si>
+    <t>Focus on securing 2nd Goldmine with Migdol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -636,14 +801,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -757,6 +914,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -793,47 +963,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -850,17 +982,34 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -870,21 +1019,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1100,250 +1245,279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF89C48-9EFF-4E8C-9189-84D684EF8A06}">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB3B2E0-FE9F-4A45-9E1D-532F03D0A0F6}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="17" t="s">
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="200.25">
-      <c r="A4" s="13" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4" ht="110.4">
+      <c r="A4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="138">
+      <c r="A5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B5" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" ht="13.8">
+      <c r="A6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" spans="1:4" ht="13.8">
+      <c r="A7" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="207">
+      <c r="A8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="262.2">
+      <c r="A9" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C9" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.8">
+      <c r="A10" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" ht="13.8">
+      <c r="A11" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:4" ht="13.8">
+      <c r="A12" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8">
+      <c r="A13" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.6">
+      <c r="A14" s="20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25">
-      <c r="A5" s="13" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" ht="13.8">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="13" t="s">
+      <c r="C15" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" ht="110.4">
+      <c r="A16" s="25"/>
+      <c r="B16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C16" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6">
+      <c r="A17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="228.75">
-      <c r="A9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" ht="114">
-      <c r="A14" s="5"/>
-      <c r="B14" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" ht="15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="12"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="18"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="9"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:4" ht="13.8">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="1:4" ht="13.8">
+      <c r="A19" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.6">
+      <c r="A20" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:4" ht="165.6">
+      <c r="A21" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6">
+      <c r="A22" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="9"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="11"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" ht="15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="11"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="30"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" s="29"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="30"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="29"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1357,173 +1531,159 @@
       <selection activeCell="D7" sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="17" t="s">
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="21" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:4" ht="157.5">
-      <c r="A4" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="21" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="138">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.8">
+      <c r="A5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="13.8">
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="1:4" ht="171.75">
-      <c r="A7" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="17" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="151.80000000000001">
+      <c r="A7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="14.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" spans="1:4" ht="128.25">
-      <c r="A10" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="17" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6">
+      <c r="A8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:4" ht="13.8">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="124.2">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6">
+      <c r="A11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:4" ht="13.8">
+      <c r="A12" s="8"/>
+      <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="23"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="27"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="A15" s="7"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="18"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:2" ht="15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="18" spans="1:2" ht="15">
-      <c r="A18" s="24"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="4"/>
     </row>
     <row r="19" spans="1:2" ht="15">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="6"/>
     </row>
     <row r="21" spans="1:2" ht="15">
-      <c r="A21" s="25"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="5"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="6"/>
     </row>
     <row r="23" spans="1:2" ht="15">
-      <c r="A23" s="25"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1541,209 +1701,182 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BE4142-F790-413B-91A7-FA09476BE6B8}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="34" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:4" ht="157.5">
-      <c r="A4" s="42" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" ht="138">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.8">
+      <c r="A5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="46" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="165.6">
+      <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="220.8">
+      <c r="A7" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="42" t="s">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="186">
-      <c r="A6" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="43"/>
-    </row>
-    <row r="7" spans="1:4" ht="242.25">
-      <c r="A7" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="43"/>
-    </row>
-    <row r="8" spans="1:4" ht="228.75">
-      <c r="A8" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="43" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="193.2">
+      <c r="A8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.6">
+      <c r="A9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:4" ht="13.8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" ht="82.8">
+      <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="43"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="14.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="34"/>
-    </row>
-    <row r="11" spans="1:4" ht="100.5">
-      <c r="A11" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="17" t="s">
+      <c r="B11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6">
+      <c r="A12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8">
+      <c r="A13" s="16"/>
+      <c r="C13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="36"/>
+      <c r="D13" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.8">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="33"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="40"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
+      <c r="A16" s="7"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="37"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="A18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="37"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="39"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
+      <c r="A21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="38"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
+      <c r="A22" s="5"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="39"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="38"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
+      <c r="A24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
